--- a/upload/cases/3/2.xlsx
+++ b/upload/cases/3/2.xlsx
@@ -2,25 +2,26 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="11775" yWindow="2535" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
-    <sheet name="case" sheetId="1" r:id="rId1"/>
-    <sheet name="data" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="sheet1" sheetId="4" r:id="rId1"/>
+    <sheet name="data" sheetId="5" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519" concurrentCalc="0"/>
+  <webPublishing codePage="65001"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="31">
-  <si>
-    <t>Module</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="43">
   <si>
     <t>TestCase</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -42,6 +43,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>http://www.testingedu.com.cn/inter/HTTP/auth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>token</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>success</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Result</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -50,71 +63,83 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>授权</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>授权接口</t>
+    <t>200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Suit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http_set</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http_post</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http_get_res_by_json_path</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$.token</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http_add_headers</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${token}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http_assert_res_by_json_path</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$.status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http_assert_res_contain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$.msg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数错误</t>
     <rPh sb="0" eb="1">
-      <t>sou'q</t>
+      <t>can's</t>
     </rPh>
     <rPh sb="2" eb="3">
-      <t>jie'k</t>
+      <t>cuo'wu</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http.set</t>
-  </si>
-  <si>
-    <t>http.post</t>
-  </si>
-  <si>
-    <t>http.getToken</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>token</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http.addToken</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${token}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>assertJson</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>status</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>assertResContain</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>success</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${status}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${url}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>url</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.testingedu.com.cn/inter/HTTP/auth</t>
+    <t>http://www.testingedu.com.cn/inter/HTTP/login?username=&amp;password=123456</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.testingedu.com.cn/inter/HTTP/login?username=ted55555&amp;password=123456</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户名密码错误</t>
+    <rPh sb="0" eb="1">
+      <t>can's</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>cuo'wu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varName</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -126,39 +151,84 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>varName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>PASS</t>
-  </si>
-  <si>
-    <t>{"status":200,"msg":"success","token":"b7a501e3f0c04e85b387bef5e3ded1a6"}</t>
-  </si>
-  <si>
-    <t>{"status":200,"msg":"success","token":"eb502abf0b5a4d908fa4190d87b4ee6c"}</t>
+    <t>${url1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>url1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>status1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${status1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>url2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${url2}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${status2}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>status2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>402</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>401</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>msg2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>msg1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${msg2}</t>
+    <rPh sb="0" eb="1">
+      <t>can's</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>cuo'wu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${msg1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="DengXian"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="DengXian"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -190,13 +260,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -205,6 +275,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -251,12 +326,12 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="DengXian Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -283,14 +358,15 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="DengXian"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -317,6 +393,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -493,234 +570,244 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="18.375" collapsed="false"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="49.375" collapsed="false"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="10.5" collapsed="false"/>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="49.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="2"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="2"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="2"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="2"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="2"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="2"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="C8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="C9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="C10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="3"/>
-      <c r="B3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" t="s">
-        <v>28</v>
-      </c>
-      <c r="H3" t="s">
-        <v>29</v>
-      </c>
-      <c r="I3" t="s">
-        <v>28</v>
-      </c>
-      <c r="J3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="3"/>
-      <c r="B4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" t="s">
-        <v>28</v>
-      </c>
-      <c r="I4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="3"/>
-      <c r="B5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" t="s">
-        <v>28</v>
-      </c>
-      <c r="I5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="3"/>
-      <c r="B6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="3"/>
-      <c r="B7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G7" t="s">
-        <v>28</v>
-      </c>
-      <c r="I7" t="s">
-        <v>28</v>
+      <c r="E10" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" style="2" width="9.0" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" style="2" width="45.25" collapsed="false"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="49.375" collapsed="false"/>
-    <col min="4" max="16384" style="2" width="9.0" collapsed="false"/>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="3" width="49.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="2" t="s">
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
         <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="2">
-        <v>200</v>
-      </c>
-      <c r="C3" s="2">
-        <v>200</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
 </file>